--- a/olx-0-50-macbook+pro.xlsx
+++ b/olx-0-50-macbook+pro.xlsx
@@ -43709,6 +43709,396 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B62" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B63" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B64" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B65" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B66" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B67" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B68" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B69" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B70" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B71" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B72" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B73" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B74" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B75" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B76" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B77" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B78" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B79" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B80" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B81" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B82" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B83" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B84" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B85" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B86" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B87" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B88" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B89" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B90" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B91" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B92" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B93" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B94" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B95" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B96" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B97" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B98" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B99" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B100" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B101" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B102" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B103" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B104" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B105" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B106" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B107" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B108" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B109" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B110" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B111" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B112" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B113" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B114" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B115" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B116" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B117" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B118" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B119" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B120" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B121" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B122" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B123" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B124" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B125" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B126" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B127" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B128" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B129" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B130" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B131" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B132" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B133" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B134" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B135" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B136" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B137" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B138" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B139" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B140" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B141" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B142" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B143" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B144" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B145" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B146" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B147" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B148" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B149" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B150" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B151" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B152" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B153" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B154" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B155" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B156" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B157" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B158" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B159" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B160" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B161" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B162" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B163" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B164" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B165" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B166" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B167" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B168" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B169" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B170" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B171" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B172" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B173" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B174" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B175" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B176" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B177" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B178" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B179" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B180" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B181" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B182" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B183" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B184" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B185" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B186" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B187" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B188" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B189" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B190" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B191" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B192" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B193" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B194" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B195" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B196" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B197" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B198" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B199" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B200" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B201" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B202" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B203" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B204" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B205" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B206" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B207" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B208" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B209" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B210" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B211" r:id="rId210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B212" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B213" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B214" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B215" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B216" r:id="rId215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B217" r:id="rId216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B218" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B219" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B220" r:id="rId219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B221" r:id="rId220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B222" r:id="rId221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B223" r:id="rId222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B224" r:id="rId223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B225" r:id="rId224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B226" r:id="rId225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B227" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B228" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B229" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B230" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B231" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B232" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B233" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B234" r:id="rId233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B235" r:id="rId234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B236" r:id="rId235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B237" r:id="rId236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B238" r:id="rId237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B239" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B240" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B241" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B242" r:id="rId241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B243" r:id="rId242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B244" r:id="rId243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B245" r:id="rId244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B246" r:id="rId245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B247" r:id="rId246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B248" r:id="rId247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B249" r:id="rId248"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B250" r:id="rId249"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B251" r:id="rId250"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B252" r:id="rId251"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B253" r:id="rId252"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B254" r:id="rId253"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B255" r:id="rId254"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B256" r:id="rId255"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B257" r:id="rId256"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B258" r:id="rId257"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B259" r:id="rId258"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B260" r:id="rId259"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B261" r:id="rId260"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B262" r:id="rId261"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B263" r:id="rId262"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B264" r:id="rId263"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B265" r:id="rId264"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B266" r:id="rId265"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B267" r:id="rId266"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B268" r:id="rId267"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B269" r:id="rId268"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B270" r:id="rId269"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B271" r:id="rId270"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B272" r:id="rId271"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B273" r:id="rId272"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B274" r:id="rId273"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B275" r:id="rId274"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B276" r:id="rId275"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B277" r:id="rId276"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B278" r:id="rId277"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B279" r:id="rId278"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B280" r:id="rId279"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B281" r:id="rId280"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B282" r:id="rId281"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B283" r:id="rId282"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B284" r:id="rId283"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B285" r:id="rId284"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B286" r:id="rId285"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B287" r:id="rId286"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B288" r:id="rId287"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B289" r:id="rId288"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B290" r:id="rId289"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B291" r:id="rId290"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B292" r:id="rId291"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B293" r:id="rId292"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B294" r:id="rId293"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B295" r:id="rId294"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B296" r:id="rId295"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B297" r:id="rId296"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B298" r:id="rId297"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B299" r:id="rId298"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B300" r:id="rId299"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B301" r:id="rId300"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B302" r:id="rId301"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B303" r:id="rId302"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B304" r:id="rId303"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B305" r:id="rId304"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B306" r:id="rId305"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B307" r:id="rId306"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B308" r:id="rId307"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B309" r:id="rId308"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B310" r:id="rId309"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B311" r:id="rId310"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B312" r:id="rId311"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B313" r:id="rId312"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B314" r:id="rId313"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B315" r:id="rId314"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B316" r:id="rId315"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B317" r:id="rId316"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B318" r:id="rId317"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B319" r:id="rId318"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B320" r:id="rId319"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B321" r:id="rId320"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B322" r:id="rId321"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B323" r:id="rId322"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B324" r:id="rId323"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B325" r:id="rId324"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B326" r:id="rId325"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B327" r:id="rId326"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B328" r:id="rId327"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B329" r:id="rId328"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B330" r:id="rId329"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B331" r:id="rId330"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B332" r:id="rId331"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B333" r:id="rId332"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B334" r:id="rId333"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B335" r:id="rId334"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B336" r:id="rId335"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B337" r:id="rId336"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B338" r:id="rId337"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B339" r:id="rId338"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B340" r:id="rId339"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B341" r:id="rId340"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B342" r:id="rId341"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B343" r:id="rId342"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B344" r:id="rId343"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B345" r:id="rId344"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B346" r:id="rId345"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B347" r:id="rId346"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B348" r:id="rId347"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B349" r:id="rId348"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B350" r:id="rId349"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B351" r:id="rId350"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B352" r:id="rId351"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B353" r:id="rId352"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B354" r:id="rId353"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B355" r:id="rId354"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B356" r:id="rId355"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B357" r:id="rId356"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B358" r:id="rId357"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B359" r:id="rId358"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B360" r:id="rId359"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B361" r:id="rId360"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B362" r:id="rId361"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B363" r:id="rId362"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B364" r:id="rId363"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B365" r:id="rId364"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B366" r:id="rId365"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B367" r:id="rId366"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B368" r:id="rId367"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B369" r:id="rId368"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B370" r:id="rId369"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B371" r:id="rId370"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B372" r:id="rId371"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B373" r:id="rId372"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B374" r:id="rId373"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B375" r:id="rId374"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B376" r:id="rId375"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B377" r:id="rId376"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B378" r:id="rId377"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B379" r:id="rId378"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B380" r:id="rId379"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B381" r:id="rId380"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B382" r:id="rId381"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B383" r:id="rId382"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B384" r:id="rId383"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B385" r:id="rId384"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B386" r:id="rId385"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B387" r:id="rId386"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B388" r:id="rId387"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B389" r:id="rId388"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>